--- a/notebooks/indicadores_ec.xlsx
+++ b/notebooks/indicadores_ec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Packen\Data Analysis\Python\p_projects\bc-dataton\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C06EF4-CCBE-4781-83BA-59DDA1EB25C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A5AB7-37EA-41D2-BCAB-12E8396E1B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BB08DF2-F893-40A7-BD0F-3E661E015726}"/>
+    <workbookView xWindow="5115" yWindow="1575" windowWidth="15375" windowHeight="7875" xr2:uid="{7BB08DF2-F893-40A7-BD0F-3E661E015726}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C056346A-F20B-4AFD-8430-2CE436F196DC}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,26 +975,6 @@
       </c>
       <c r="F23" s="7">
         <v>114.593667236345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>202012</v>
-      </c>
-      <c r="B24">
-        <v>-10.4</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>-42.6</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="F24" s="7">
-        <v>116.593667236345</v>
       </c>
     </row>
   </sheetData>
